--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E8" s="3">
         <v>38500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>43700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E9" s="3">
         <v>31400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>34600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>11100</v>
       </c>
       <c r="J10" s="3">
         <v>11100</v>
       </c>
       <c r="K10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="L10" s="3">
         <v>9300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,35 +986,38 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1014,31 +1033,34 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E17" s="3">
         <v>38900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>38500</v>
       </c>
       <c r="G17" s="3">
         <v>38500</v>
       </c>
       <c r="H17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="I17" s="3">
         <v>40900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1209,198 +1242,213 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1500</v>
       </c>
       <c r="K26" s="3">
         <v>1500</v>
       </c>
       <c r="L26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1500</v>
       </c>
       <c r="K27" s="3">
         <v>1500</v>
       </c>
       <c r="L27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1589,11 +1649,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1601,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>600</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1737,66 +1806,72 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1000</v>
       </c>
       <c r="I41" s="3">
         <v>1000</v>
       </c>
       <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>700</v>
       </c>
       <c r="O41" s="3">
         <v>700</v>
       </c>
       <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E43" s="3">
         <v>29300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E44" s="3">
         <v>14500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47900</v>
+        <v>42600</v>
       </c>
       <c r="E46" s="3">
         <v>47900</v>
       </c>
       <c r="F46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="G46" s="3">
         <v>50600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2380,105 @@
       <c r="P47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E48" s="3">
         <v>25000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>23000</v>
       </c>
       <c r="L48" s="3">
         <v>23000</v>
       </c>
       <c r="M48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N48" s="3">
         <v>22600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E49" s="3">
         <v>34700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>47500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>51600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>700</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E54" s="3">
         <v>109600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>126900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>126900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>129200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>122500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,87 +2749,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E57" s="3">
         <v>12800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
         <v>2900</v>
       </c>
       <c r="F58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2400</v>
       </c>
       <c r="O58" s="3">
         <v>2400</v>
@@ -2708,28 +2841,31 @@
       <c r="P58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4200</v>
       </c>
       <c r="J59" s="3">
         <v>4200</v>
@@ -2738,154 +2874,166 @@
         <v>4200</v>
       </c>
       <c r="L59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M59" s="3">
         <v>4400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3700</v>
       </c>
       <c r="N59" s="3">
         <v>3700</v>
       </c>
       <c r="O59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E60" s="3">
         <v>19800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>20400</v>
       </c>
       <c r="O60" s="3">
         <v>20400</v>
       </c>
       <c r="P60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E61" s="3">
         <v>47900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>51400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>52500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>48200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2500</v>
       </c>
       <c r="J62" s="3">
         <v>2500</v>
       </c>
       <c r="K62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E66" s="3">
         <v>70200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3263,43 +3436,46 @@
         <v>-6600</v>
       </c>
       <c r="E72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>5200</v>
       </c>
       <c r="K72" s="3">
         <v>5200</v>
       </c>
       <c r="L72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M72" s="3">
         <v>4600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E76" s="3">
         <v>39400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>51300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>51000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3653,7 +3851,7 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K83" s="3">
         <v>1600</v>
@@ -3665,7 +3863,7 @@
         <v>1600</v>
       </c>
       <c r="N83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1500</v>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-900</v>
       </c>
       <c r="P91" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4161,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1500</v>
       </c>
       <c r="H96" s="3">
         <v>-1500</v>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-2700</v>
       </c>
       <c r="M100" s="3">
         <v>-2700</v>
       </c>
       <c r="N100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="3">
         <v>35600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>38500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>38900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>39500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>39800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>42100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>45700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>47300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>41700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>41200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>44500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>47900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>43700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F9" s="3">
         <v>27800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>31400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>30700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>31200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>31300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>33500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>36200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>32400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>32300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>33900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>36700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>34100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7800</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="3">
         <v>7100</v>
       </c>
       <c r="F10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H10" s="3">
         <v>8200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>10600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>9600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,41 +1023,47 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>900</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>7500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1036,37 +1076,43 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1200</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F17" s="3">
         <v>34200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>45600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>38500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>40900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>42500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>39700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>39500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>41400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>44300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,80 +1313,92 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
@@ -1327,128 +1407,146 @@
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>800</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>800</v>
+      </c>
+      <c r="P22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>-1100</v>
       </c>
       <c r="E24" s="3">
         <v>-300</v>
       </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>900</v>
       </c>
       <c r="P24" s="3">
         <v>700</v>
       </c>
       <c r="Q24" s="3">
+        <v>900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>700</v>
+      </c>
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2000</v>
       </c>
       <c r="P26" s="3">
         <v>1700</v>
       </c>
       <c r="Q26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2000</v>
       </c>
       <c r="P27" s="3">
         <v>1700</v>
       </c>
       <c r="Q27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,43 +1751,49 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>100</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>600</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>600</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1809,69 +1949,81 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2000</v>
       </c>
       <c r="P33" s="3">
         <v>1700</v>
       </c>
       <c r="Q33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2000</v>
       </c>
       <c r="P35" s="3">
         <v>1700</v>
       </c>
       <c r="Q35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2328,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F43" s="3">
         <v>25800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>29300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>29400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>31400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>31800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>32400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>32600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>31800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>27800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>29900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>32300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>27700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F44" s="3">
         <v>13000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>14500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>15200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>15900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>16300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>17500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>16700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>16900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>17000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>16400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>16700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F46" s="3">
         <v>42600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>47900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>47900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>50600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>52000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>55600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>54400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>55100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>49600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>51700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>52000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>53600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>47200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2593,120 @@
       <c r="Q47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F48" s="3">
         <v>23400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>25000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>25500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>25200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>25100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>25000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>23000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>23000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>22600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>22400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>21200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F49" s="3">
         <v>33700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>34700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>35700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>43400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>44400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>45400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>46400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>47500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>48500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>49500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>50600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>51600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>52600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>900</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>800</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>116600</v>
+      </c>
+      <c r="F54" s="3">
         <v>101700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>109600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>110900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>121100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>123300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>127800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>126900</v>
       </c>
       <c r="K54" s="3">
         <v>127800</v>
       </c>
       <c r="L54" s="3">
+        <v>126900</v>
+      </c>
+      <c r="M54" s="3">
+        <v>127800</v>
+      </c>
+      <c r="N54" s="3">
         <v>122800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>126000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>126900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>129200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>122500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3010,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F57" s="3">
         <v>9300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>13500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,234 +3074,264 @@
         <v>2800</v>
       </c>
       <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2400</v>
       </c>
       <c r="Q58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>4200</v>
       </c>
       <c r="L59" s="3">
         <v>4200</v>
       </c>
       <c r="M59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F60" s="3">
         <v>15400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>19800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>21300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>19100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>20400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F61" s="3">
         <v>44600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>47900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>49400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>51300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>52600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>51400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>50800</v>
       </c>
       <c r="K61" s="3">
         <v>51400</v>
       </c>
       <c r="L61" s="3">
+        <v>50800</v>
+      </c>
+      <c r="M61" s="3">
+        <v>51400</v>
+      </c>
+      <c r="N61" s="3">
         <v>49800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>50400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>52500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>53700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>48200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F66" s="3">
         <v>62200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>70200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>70300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>72800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>74400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>77300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>76800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>71900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>75700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>75900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>78500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>72500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F76" s="3">
         <v>39500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>39400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>40700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>48200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>48900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>50500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>51300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>51000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>50900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>50300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>51000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>50100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2000</v>
       </c>
       <c r="P81" s="3">
         <v>1700</v>
       </c>
       <c r="Q81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4234,7 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
@@ -3854,10 +4252,10 @@
         <v>1700</v>
       </c>
       <c r="K83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M83" s="3">
         <v>1600</v>
@@ -3866,16 +4264,22 @@
         <v>1600</v>
       </c>
       <c r="O83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1100</v>
       </c>
       <c r="N91" s="3">
         <v>-700</v>
       </c>
       <c r="O91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1000</v>
       </c>
       <c r="N94" s="3">
         <v>-700</v>
       </c>
       <c r="O94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4397,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1500</v>
       </c>
       <c r="J96" s="3">
         <v>-1500</v>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E8" s="3">
         <v>14800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>47900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>43700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E9" s="3">
         <v>13000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>11100</v>
       </c>
       <c r="M10" s="3">
         <v>11100</v>
       </c>
       <c r="N10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="O10" s="3">
         <v>9300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,44 +1046,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
-      </c>
-      <c r="E14" s="3">
-        <v>900</v>
       </c>
       <c r="F14" s="3">
         <v>900</v>
       </c>
       <c r="G14" s="3">
+        <v>900</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1082,31 +1102,34 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>1100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1114,8 +1137,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E17" s="3">
         <v>19600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>38500</v>
       </c>
       <c r="J17" s="3">
         <v>38500</v>
       </c>
       <c r="K17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="L17" s="3">
         <v>40900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,234 +1353,249 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1500</v>
       </c>
       <c r="N26" s="3">
         <v>1500</v>
       </c>
       <c r="O26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1500</v>
       </c>
       <c r="N27" s="3">
         <v>1500</v>
       </c>
       <c r="O27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,11 +1829,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1780,11 +1841,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1792,11 +1853,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1955,75 +2025,81 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1000</v>
       </c>
       <c r="L41" s="3">
         <v>1000</v>
       </c>
       <c r="M41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>700</v>
       </c>
       <c r="R41" s="3">
         <v>700</v>
       </c>
       <c r="S41" s="3">
+        <v>700</v>
+      </c>
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E43" s="3">
         <v>17100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E44" s="3">
         <v>15100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E46" s="3">
         <v>40600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>47900</v>
       </c>
       <c r="H46" s="3">
         <v>47900</v>
       </c>
       <c r="I46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="J46" s="3">
         <v>50600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>55100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>49600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>51700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E48" s="3">
         <v>33800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>23000</v>
       </c>
       <c r="O48" s="3">
         <v>23000</v>
       </c>
       <c r="P48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>22600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E49" s="3">
         <v>31700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>43400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>51600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>52600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
+        <v>800</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
       </c>
       <c r="P52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E54" s="3">
         <v>108300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>116600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>101700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>122800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>126000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>126900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>129200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>122500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,66 +3142,70 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="E58" s="3">
         <v>2800</v>
@@ -3080,37 +3214,37 @@
         <v>2800</v>
       </c>
       <c r="G58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H58" s="3">
         <v>2900</v>
       </c>
       <c r="I58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2400</v>
       </c>
       <c r="R58" s="3">
         <v>2400</v>
@@ -3118,37 +3252,40 @@
       <c r="S58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>4200</v>
       </c>
       <c r="M59" s="3">
         <v>4200</v>
@@ -3157,181 +3294,193 @@
         <v>4200</v>
       </c>
       <c r="O59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P59" s="3">
         <v>4400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3700</v>
       </c>
       <c r="Q59" s="3">
         <v>3700</v>
       </c>
       <c r="R59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E60" s="3">
         <v>15900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>20400</v>
       </c>
       <c r="R60" s="3">
         <v>20400</v>
       </c>
       <c r="S60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="T60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E61" s="3">
         <v>47700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>49400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>51300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>52600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>51400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>52500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>53700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>48200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E62" s="3">
         <v>10700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2500</v>
       </c>
       <c r="M62" s="3">
         <v>2500</v>
       </c>
       <c r="N62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E66" s="3">
         <v>74300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>70200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>70300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6600</v>
       </c>
       <c r="G72" s="3">
         <v>-6600</v>
       </c>
       <c r="H72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>5200</v>
       </c>
       <c r="N72" s="3">
         <v>5200</v>
       </c>
       <c r="O72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P72" s="3">
         <v>4600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E76" s="3">
         <v>34100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,19 +4423,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -4258,7 +4457,7 @@
         <v>1700</v>
       </c>
       <c r="M83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N83" s="3">
         <v>1600</v>
@@ -4270,7 +4469,7 @@
         <v>1600</v>
       </c>
       <c r="Q83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="R83" s="3">
         <v>1500</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-900</v>
       </c>
       <c r="S91" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4871,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1500</v>
       </c>
       <c r="K96" s="3">
         <v>-1500</v>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-2700</v>
       </c>
       <c r="P100" s="3">
         <v>-2700</v>
       </c>
       <c r="Q100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R100" s="3">
         <v>3500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,283 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="3">
         <v>35600</v>
       </c>
-      <c r="E8" s="3">
-        <v>14800</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="3">
         <v>35000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>38500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>38900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>39500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>39800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>42100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>45700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>47300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>41700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>41200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>44500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>47900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>43700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27500</v>
+        <v>28900</v>
       </c>
       <c r="E9" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="F9" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H9" s="3">
         <v>27900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>27800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>31400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>30700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>31200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>31300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>33500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>34600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>36200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>32400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>32300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>33900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>36700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>34100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8100</v>
+        <v>5900</v>
       </c>
       <c r="E10" s="3">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="3">
-        <v>7100</v>
+        <v>8300</v>
       </c>
       <c r="G10" s="3">
-        <v>7800</v>
+        <v>1900</v>
       </c>
       <c r="H10" s="3">
         <v>7100</v>
       </c>
       <c r="I10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>11100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>10600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>11200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,41 +1097,41 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>7500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1105,46 +1144,52 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1300</v>
       </c>
       <c r="F15" s="3">
         <v>1100</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
       </c>
       <c r="I15" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36900</v>
+      </c>
+      <c r="F17" s="3">
         <v>33700</v>
       </c>
-      <c r="E17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H17" s="3">
         <v>34700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>45600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>38500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>38500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>40900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>42500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>44600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>39700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>39500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>41400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>44300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>40900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1356,78 +1423,90 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,16 +1517,16 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
@@ -1456,146 +1535,164 @@
         <v>1300</v>
       </c>
       <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>800</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
       </c>
       <c r="R22" s="3">
+        <v>800</v>
+      </c>
+      <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>-300</v>
       </c>
       <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>900</v>
       </c>
       <c r="S24" s="3">
         <v>700</v>
       </c>
       <c r="T24" s="3">
+        <v>900</v>
+      </c>
+      <c r="U24" s="3">
+        <v>700</v>
+      </c>
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2000</v>
       </c>
       <c r="S26" s="3">
         <v>1700</v>
       </c>
       <c r="T26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2000</v>
       </c>
       <c r="S27" s="3">
         <v>1700</v>
       </c>
       <c r="T27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1832,38 +1953,38 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>100</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>100</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>600</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>600</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2028,78 +2167,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2000</v>
       </c>
       <c r="S33" s="3">
         <v>1700</v>
       </c>
       <c r="T33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>2000</v>
       </c>
       <c r="S35" s="3">
         <v>1700</v>
       </c>
       <c r="T35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="E41" s="3">
-        <v>4700</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2606,262 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17100</v>
       </c>
-      <c r="F43" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J43" s="3">
         <v>29300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>29400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>31400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>31800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>32400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>32600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>27800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>29900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>31700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>32300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>27700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12500</v>
+        <v>13600</v>
       </c>
       <c r="E44" s="3">
-        <v>15100</v>
+        <v>12000</v>
       </c>
       <c r="F44" s="3">
-        <v>15300</v>
+        <v>12300</v>
       </c>
       <c r="G44" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I44" s="3">
         <v>13000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>15200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>16300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>17500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>16700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>16900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>16300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>17000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>16400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>17100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>16700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="E45" s="3">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
         <v>4300</v>
       </c>
       <c r="G45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47500</v>
+        <v>52000</v>
       </c>
       <c r="E46" s="3">
-        <v>40600</v>
+        <v>46100</v>
       </c>
       <c r="F46" s="3">
-        <v>47300</v>
+        <v>46700</v>
       </c>
       <c r="G46" s="3">
+        <v>39600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>46100</v>
+      </c>
+      <c r="I46" s="3">
         <v>42600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>47900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>47900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>50600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>52000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>55600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>54400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>55100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>49600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>51700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>52000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>53600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>47200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,120 +2916,138 @@
       <c r="T47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="E48" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="F48" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H48" s="3">
         <v>34500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>23400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>25000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>25500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>25200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>23300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>23000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>23000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>22600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>22400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>21200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F49" s="3">
         <v>30700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>31700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>32800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>33700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>34700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>35700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>43400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>44400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>45400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>46400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>47500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>48500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>49500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>50600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>51600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>52600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
-        <v>900</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>800</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>800</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113600</v>
+        <v>115900</v>
       </c>
       <c r="E54" s="3">
-        <v>108300</v>
+        <v>111200</v>
       </c>
       <c r="F54" s="3">
-        <v>116600</v>
+        <v>112900</v>
       </c>
       <c r="G54" s="3">
+        <v>107500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>115600</v>
+      </c>
+      <c r="I54" s="3">
         <v>101700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>109600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>110900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>121100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>123300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>127800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>126900</v>
       </c>
       <c r="N54" s="3">
         <v>127800</v>
       </c>
       <c r="O54" s="3">
+        <v>126900</v>
+      </c>
+      <c r="P54" s="3">
+        <v>127800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>122800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>126000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>126900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>129200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>122500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3402,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F57" s="3">
         <v>12600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>14800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>13400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>12900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>14300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>13500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F58" s="3">
         <v>4200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2800</v>
       </c>
       <c r="G58" s="3">
         <v>2800</v>
       </c>
       <c r="H58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2400</v>
       </c>
       <c r="T58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="E59" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F59" s="3">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="G59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4200</v>
       </c>
       <c r="O59" s="3">
         <v>4200</v>
       </c>
       <c r="P59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="N60" s="3">
         <v>23300</v>
       </c>
-      <c r="E60" s="3">
-        <v>15900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>18700</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
+        <v>22400</v>
+      </c>
+      <c r="P60" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>19700</v>
+      </c>
+      <c r="R60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="S60" s="3">
         <v>19100</v>
       </c>
-      <c r="L60" s="3">
-        <v>23300</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="T60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="U60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="V60" s="3">
         <v>22400</v>
       </c>
-      <c r="N60" s="3">
-        <v>23000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>19700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>21300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>19100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>20400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>20400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F61" s="3">
         <v>45300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>47700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>43600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>44600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>47900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>49400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>51300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>52600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>51400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>50800</v>
       </c>
       <c r="N61" s="3">
         <v>51400</v>
       </c>
       <c r="O61" s="3">
+        <v>50800</v>
+      </c>
+      <c r="P61" s="3">
+        <v>51400</v>
+      </c>
+      <c r="Q61" s="3">
         <v>49800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>50400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>52500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>53700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>48200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F62" s="3">
         <v>9900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>12700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>79000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>74600</v>
+      </c>
+      <c r="H66" s="3">
         <v>78500</v>
       </c>
-      <c r="E66" s="3">
-        <v>74300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>78200</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>62200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>70200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>70300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>72800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>74400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>77300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>75600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>76800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>71900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>75700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>75900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>78500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>72500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11000</v>
+        <v>-13300</v>
       </c>
       <c r="E72" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="F72" s="3">
-        <v>-7700</v>
+        <v>-12200</v>
       </c>
       <c r="G72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35100</v>
+        <v>32800</v>
       </c>
       <c r="E76" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="F76" s="3">
-        <v>38300</v>
+        <v>33900</v>
       </c>
       <c r="G76" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>37200</v>
+      </c>
+      <c r="I76" s="3">
         <v>39500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>39400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>48200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>48900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>50500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>51300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>51000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>50300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>51000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>50700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>50100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>2000</v>
       </c>
       <c r="S81" s="3">
         <v>1700</v>
       </c>
       <c r="T81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,16 +4819,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="F83" s="3">
         <v>1800</v>
@@ -4442,7 +4839,7 @@
         <v>1700</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
@@ -4460,10 +4857,10 @@
         <v>1700</v>
       </c>
       <c r="N83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="O83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="P83" s="3">
         <v>1600</v>
@@ -4472,16 +4869,22 @@
         <v>1600</v>
       </c>
       <c r="R83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="S83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q91" s="3">
         <v>-700</v>
       </c>
       <c r="R91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-700</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q94" s="3">
         <v>-700</v>
       </c>
       <c r="R94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5108,13 +5575,13 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1500</v>
       </c>
       <c r="M96" s="3">
         <v>-1500</v>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-900</v>
       </c>
       <c r="H102" s="3">
         <v>500</v>
       </c>
       <c r="I102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E8" s="3">
         <v>34800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>47300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>47900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>43700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E9" s="3">
         <v>28900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>11100</v>
       </c>
       <c r="P10" s="3">
         <v>11100</v>
       </c>
       <c r="Q10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="R10" s="3">
         <v>9300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,38 +1123,38 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>900</v>
       </c>
       <c r="I14" s="3">
         <v>900</v>
       </c>
       <c r="J14" s="3">
+        <v>900</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1150,19 +1170,22 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1100</v>
       </c>
       <c r="G15" s="3">
         <v>1100</v>
@@ -1171,19 +1194,19 @@
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1191,8 +1214,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E17" s="3">
         <v>34800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>38500</v>
       </c>
       <c r="M17" s="3">
         <v>38500</v>
       </c>
       <c r="N17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O17" s="3">
         <v>40900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,11 +1424,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1429,270 +1463,285 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>700</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
       </c>
       <c r="R22" s="3">
+        <v>700</v>
+      </c>
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1500</v>
       </c>
       <c r="Q26" s="3">
         <v>1500</v>
       </c>
       <c r="R26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1500</v>
       </c>
       <c r="Q27" s="3">
         <v>1500</v>
       </c>
       <c r="R27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,11 +2020,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1971,11 +2032,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,11 +2204,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2173,84 +2243,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1000</v>
       </c>
       <c r="O41" s="3">
         <v>1000</v>
       </c>
       <c r="P41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>700</v>
       </c>
       <c r="U41" s="3">
         <v>700</v>
       </c>
       <c r="V41" s="3">
+        <v>700</v>
+      </c>
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E43" s="3">
         <v>31000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>25800</v>
       </c>
       <c r="I43" s="3">
         <v>25800</v>
       </c>
       <c r="J43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K43" s="3">
         <v>29300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E44" s="3">
         <v>13600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>17100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E46" s="3">
         <v>52000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>47900</v>
       </c>
       <c r="K46" s="3">
         <v>47900</v>
       </c>
       <c r="L46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="M46" s="3">
         <v>50600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>55600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>54400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>55100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>49600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>51700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>52000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>53600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E48" s="3">
         <v>32900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>23000</v>
       </c>
       <c r="R48" s="3">
         <v>23000</v>
       </c>
       <c r="S48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="T48" s="3">
         <v>22600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E49" s="3">
         <v>28800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>51600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>52600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1400</v>
       </c>
       <c r="G52" s="3">
         <v>1400</v>
       </c>
       <c r="H52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>800</v>
       </c>
       <c r="L52" s="3">
         <v>800</v>
       </c>
       <c r="M52" s="3">
+        <v>800</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>700</v>
       </c>
       <c r="S52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E54" s="3">
         <v>115900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>111200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>101700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>127800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>126900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>122800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>126000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>126900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>129200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>122500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,84 +3534,88 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E58" s="3">
         <v>53900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2800</v>
       </c>
       <c r="H58" s="3">
         <v>2800</v>
@@ -3490,37 +3624,37 @@
         <v>2800</v>
       </c>
       <c r="J58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K58" s="3">
         <v>2900</v>
       </c>
       <c r="L58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2400</v>
       </c>
       <c r="U58" s="3">
         <v>2400</v>
@@ -3528,46 +3662,49 @@
       <c r="V58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4200</v>
       </c>
       <c r="P59" s="3">
         <v>4200</v>
@@ -3576,22 +3713,25 @@
         <v>4200</v>
       </c>
       <c r="R59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S59" s="3">
         <v>4400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>3700</v>
       </c>
       <c r="T59" s="3">
         <v>3700</v>
       </c>
       <c r="U59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V59" s="3">
         <v>4600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3599,185 +3739,194 @@
         <v>72600</v>
       </c>
       <c r="E60" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F60" s="3">
         <v>63800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>20400</v>
       </c>
       <c r="U60" s="3">
         <v>20400</v>
       </c>
       <c r="V60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="W60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>51300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>52600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>50400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>52500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>53700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>48200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2500</v>
       </c>
       <c r="P62" s="3">
         <v>2500</v>
       </c>
       <c r="Q62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E66" s="3">
         <v>83100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>76800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6600</v>
       </c>
       <c r="J72" s="3">
         <v>-6600</v>
       </c>
       <c r="K72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>5200</v>
       </c>
       <c r="Q72" s="3">
         <v>5200</v>
       </c>
       <c r="R72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S72" s="3">
         <v>4600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E76" s="3">
         <v>32800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>33900</v>
       </c>
       <c r="F76" s="3">
         <v>33900</v>
       </c>
       <c r="G76" s="3">
+        <v>33900</v>
+      </c>
+      <c r="H76" s="3">
         <v>32900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,28 +5019,29 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>1700</v>
@@ -4863,7 +5062,7 @@
         <v>1700</v>
       </c>
       <c r="P83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q83" s="3">
         <v>1600</v>
@@ -4875,7 +5074,7 @@
         <v>1600</v>
       </c>
       <c r="T83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="U83" s="3">
         <v>1500</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-900</v>
       </c>
       <c r="V91" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5581,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1500</v>
       </c>
       <c r="N96" s="3">
         <v>-1500</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-2700</v>
       </c>
       <c r="S100" s="3">
         <v>-2700</v>
       </c>
       <c r="T100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U100" s="3">
         <v>3500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E8" s="3">
         <v>30900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>47300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>47900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>43700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E9" s="3">
         <v>26300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>33900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>34100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>4600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>11100</v>
       </c>
       <c r="Q10" s="3">
         <v>11100</v>
       </c>
       <c r="R10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="S10" s="3">
         <v>9300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,13 +1125,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1126,38 +1146,38 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>900</v>
       </c>
       <c r="J14" s="3">
         <v>900</v>
       </c>
       <c r="K14" s="3">
+        <v>900</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,13 +1205,13 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1100</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
@@ -1197,19 +1220,19 @@
         <v>1100</v>
       </c>
       <c r="J15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1240,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E17" s="3">
         <v>32400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>38500</v>
       </c>
       <c r="N17" s="3">
         <v>38500</v>
       </c>
       <c r="O17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="P17" s="3">
         <v>40900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>39500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>40900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,23 +1448,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1466,87 +1500,93 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,194 +1594,203 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>700</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
       </c>
       <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1500</v>
       </c>
       <c r="R26" s="3">
         <v>1500</v>
       </c>
       <c r="S26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1500</v>
       </c>
       <c r="R27" s="3">
         <v>1500</v>
       </c>
       <c r="S27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2023,11 +2084,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2035,11 +2096,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2108,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,23 +2262,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2246,87 +2316,93 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1000</v>
       </c>
       <c r="P41" s="3">
         <v>1000</v>
       </c>
       <c r="Q41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
-      </c>
-      <c r="U41" s="3">
-        <v>700</v>
       </c>
       <c r="V41" s="3">
         <v>700</v>
       </c>
       <c r="W41" s="3">
+        <v>700</v>
+      </c>
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E43" s="3">
         <v>29700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>25800</v>
       </c>
       <c r="J43" s="3">
         <v>25800</v>
       </c>
       <c r="K43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="L43" s="3">
         <v>29300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>32300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E44" s="3">
         <v>15300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>14800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>17000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E46" s="3">
         <v>49100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>47900</v>
       </c>
       <c r="L46" s="3">
         <v>47900</v>
       </c>
       <c r="M46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="N46" s="3">
         <v>50600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>55600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>54400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>55100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>49600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>51700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>52000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>53600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,138 +3135,147 @@
       <c r="W47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E48" s="3">
         <v>32400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>23000</v>
       </c>
       <c r="S48" s="3">
         <v>23000</v>
       </c>
       <c r="T48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="U48" s="3">
         <v>22600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E49" s="3">
         <v>28300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>47500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>48500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>51600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>52600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1400</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>800</v>
       </c>
       <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
       </c>
       <c r="T52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E54" s="3">
         <v>112200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>111200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>101700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>126900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>127800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>122800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>126000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>129200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>122500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,90 +3665,94 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E57" s="3">
         <v>12300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E58" s="3">
         <v>54500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>53900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2800</v>
       </c>
       <c r="I58" s="3">
         <v>2800</v>
@@ -3627,37 +3761,37 @@
         <v>2800</v>
       </c>
       <c r="K58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="L58" s="3">
         <v>2900</v>
       </c>
       <c r="M58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2400</v>
       </c>
       <c r="V58" s="3">
         <v>2400</v>
@@ -3665,49 +3799,52 @@
       <c r="W58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>4200</v>
       </c>
       <c r="Q59" s="3">
         <v>4200</v>
@@ -3716,87 +3853,93 @@
         <v>4200</v>
       </c>
       <c r="S59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T59" s="3">
         <v>4400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>3700</v>
       </c>
       <c r="U59" s="3">
         <v>3700</v>
       </c>
       <c r="V59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W59" s="3">
         <v>4600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72600</v>
+        <v>66800</v>
       </c>
       <c r="E60" s="3">
         <v>72600</v>
       </c>
       <c r="F60" s="3">
+        <v>72600</v>
+      </c>
+      <c r="G60" s="3">
         <v>63800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>20400</v>
       </c>
       <c r="V60" s="3">
         <v>20400</v>
       </c>
       <c r="W60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="X60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,129 +3947,135 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>52600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>49800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>50400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>52500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>53700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>48200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2500</v>
       </c>
       <c r="Q62" s="3">
         <v>2500</v>
       </c>
       <c r="R62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S62" s="3">
         <v>2400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E66" s="3">
         <v>81600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>71900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6600</v>
       </c>
       <c r="K72" s="3">
         <v>-6600</v>
       </c>
       <c r="L72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>5200</v>
       </c>
       <c r="R72" s="3">
         <v>5200</v>
       </c>
       <c r="S72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T72" s="3">
         <v>4600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E76" s="3">
         <v>30600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>33900</v>
       </c>
       <c r="G76" s="3">
         <v>33900</v>
       </c>
       <c r="H76" s="3">
+        <v>33900</v>
+      </c>
+      <c r="I76" s="3">
         <v>32900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,22 +5228,22 @@
         <v>1300</v>
       </c>
       <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1700</v>
       </c>
       <c r="K83" s="3">
         <v>1700</v>
@@ -5065,7 +5264,7 @@
         <v>1700</v>
       </c>
       <c r="Q83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R83" s="3">
         <v>1600</v>
@@ -5077,7 +5276,7 @@
         <v>1600</v>
       </c>
       <c r="U83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="V83" s="3">
         <v>1500</v>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-900</v>
       </c>
       <c r="W91" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5818,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1500</v>
       </c>
       <c r="O96" s="3">
         <v>-1500</v>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-2700</v>
       </c>
       <c r="T100" s="3">
         <v>-2700</v>
       </c>
       <c r="U100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="V100" s="3">
         <v>3500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,334 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F8" s="3">
         <v>29900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>30900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>34800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>35600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>35000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>38900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>39500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>39800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>42100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>45700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>47300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>41700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>41200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>44500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>47900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>43700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F9" s="3">
         <v>26600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>26300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>28900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>30000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>27300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>13100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>27900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>27800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>31400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>30700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>31200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>31300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>33500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>34600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>36200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>32400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>32300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>33900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>36700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>34100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7800</v>
       </c>
       <c r="L10" s="3">
         <v>7100</v>
       </c>
       <c r="M10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="O10" s="3">
         <v>8200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>11100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>8900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>10600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>11200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>9600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,20 +1161,26 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1149,41 +1188,41 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1196,58 +1235,64 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1100</v>
       </c>
       <c r="J15" s="3">
         <v>1100</v>
       </c>
       <c r="K15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L15" s="3">
         <v>1100</v>
       </c>
       <c r="M15" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1100</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1264,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F17" s="3">
         <v>37500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>32400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>36900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>33700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>19800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>34200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>38900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>45600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>38500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>42500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>44600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>39700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>39500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>41400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>44300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>40900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,29 +1514,31 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1503,104 +1570,116 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>5100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>4400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
@@ -1609,16 +1688,16 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1300</v>
       </c>
       <c r="N22" s="3">
         <v>1100</v>
@@ -1627,170 +1706,188 @@
         <v>1300</v>
       </c>
       <c r="P22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>800</v>
       </c>
       <c r="U22" s="3">
         <v>700</v>
       </c>
       <c r="V22" s="3">
+        <v>800</v>
+      </c>
+      <c r="W22" s="3">
+        <v>700</v>
+      </c>
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>-300</v>
       </c>
       <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>700</v>
-      </c>
-      <c r="V24" s="3">
-        <v>900</v>
       </c>
       <c r="W24" s="3">
         <v>700</v>
       </c>
       <c r="X24" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>2000</v>
       </c>
       <c r="W26" s="3">
         <v>1700</v>
       </c>
       <c r="X26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>2000</v>
       </c>
       <c r="W27" s="3">
         <v>1700</v>
       </c>
       <c r="X27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,64 +2176,70 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>100</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>100</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>600</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>600</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2250,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,29 +2398,35 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2319,90 +2458,102 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>2000</v>
       </c>
       <c r="W33" s="3">
         <v>1700</v>
       </c>
       <c r="X33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>2000</v>
       </c>
       <c r="W35" s="3">
         <v>1700</v>
       </c>
       <c r="X35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2833,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2977,310 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F43" s="3">
         <v>30100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>29700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>31000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>28400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>17100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>25800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>25800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>29300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>29400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>31800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>32400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>32600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>31800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>27800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>29900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>31700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>32300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>27700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F44" s="3">
         <v>17000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>15300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>12300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>14800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>14500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>15200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>15900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>16300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>17500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>16700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>16900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>16300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>17000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>16400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>17100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>16700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>3400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>2100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F46" s="3">
         <v>50800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>49100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>52000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>46100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>46700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>39600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>46100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>42600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>47900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>47900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>50600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>52000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>55600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>54400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>55100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>49600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>51700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>52000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>53600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>47200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,144 +3347,162 @@
       <c r="X47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F48" s="3">
         <v>32800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>32400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>32900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>32800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>33000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>33700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>34500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>25500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>25200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>25100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>25000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>24400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>23300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>23000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>23000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>22600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>22400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>21200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F49" s="3">
         <v>22700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>28300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>28800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>29700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>30700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>31700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>32800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>33700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>34700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>35700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>43400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>44400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>45400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>46400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>47500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>48500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>49500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>50600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>51600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>52600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>800</v>
       </c>
       <c r="Q52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>800</v>
       </c>
       <c r="S52" s="3">
+        <v>600</v>
+      </c>
+      <c r="T52" s="3">
+        <v>800</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F54" s="3">
         <v>109400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>112200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>115900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>111200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>112900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>107500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>115600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>101700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>109600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>110900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>121100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>123300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>127800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>126900</v>
       </c>
       <c r="R54" s="3">
         <v>127800</v>
       </c>
       <c r="S54" s="3">
+        <v>126900</v>
+      </c>
+      <c r="T54" s="3">
+        <v>127800</v>
+      </c>
+      <c r="U54" s="3">
         <v>122800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>126000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>126900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>129200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>122500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,280 +3925,306 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F57" s="3">
         <v>13300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>13500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>14100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>13600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>14800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>11700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>13400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>12900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>14300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>13500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F58" s="3">
         <v>47500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>54500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>53900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>47400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2800</v>
       </c>
       <c r="K58" s="3">
         <v>2800</v>
       </c>
       <c r="L58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>2400</v>
       </c>
       <c r="X58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>4200</v>
       </c>
       <c r="S59" s="3">
         <v>4200</v>
       </c>
       <c r="T59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F60" s="3">
         <v>66800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>72600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>72600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>63800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>18200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>23000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>19700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>21300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>19100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>20400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>20400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3950,132 +4235,144 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>45300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>47700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>43600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>44600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>47900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>49400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>51300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>52600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>51400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>50800</v>
       </c>
       <c r="R61" s="3">
         <v>51400</v>
       </c>
       <c r="S61" s="3">
+        <v>50800</v>
+      </c>
+      <c r="T61" s="3">
+        <v>51400</v>
+      </c>
+      <c r="U61" s="3">
         <v>49800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>50400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>52500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>53700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>48200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>10500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>4400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>3800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F66" s="3">
         <v>76800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>81600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>83100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>77300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>79000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>74600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>78500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>62200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>70200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>70300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>72800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>74400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>77300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>75600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>76800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>71900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>75700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>75900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>78500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>72500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F76" s="3">
         <v>32600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>30600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>32800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>33900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>39500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>39400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>48200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>48900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>50500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>51300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>51000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>50900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>50300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>51000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>50700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>50100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>2000</v>
       </c>
       <c r="W81" s="3">
         <v>1700</v>
       </c>
       <c r="X81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5231,16 +5628,16 @@
         <v>1300</v>
       </c>
       <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>1800</v>
@@ -5249,7 +5646,7 @@
         <v>1700</v>
       </c>
       <c r="L83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M83" s="3">
         <v>1700</v>
@@ -5267,10 +5664,10 @@
         <v>1700</v>
       </c>
       <c r="R83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T83" s="3">
         <v>1600</v>
@@ -5279,16 +5676,22 @@
         <v>1600</v>
       </c>
       <c r="V83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="W83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="X83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1100</v>
       </c>
       <c r="U91" s="3">
         <v>-700</v>
       </c>
       <c r="V91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-1000</v>
       </c>
       <c r="U94" s="3">
         <v>-700</v>
       </c>
       <c r="V94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>1300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6055,13 +6522,13 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q96" s="3">
         <v>-1500</v>
@@ -6087,8 +6554,14 @@
       <c r="X96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6776,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>3500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-900</v>
       </c>
       <c r="L102" s="3">
         <v>500</v>
       </c>
       <c r="M102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N102" s="3">
+        <v>500</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E8" s="3">
         <v>35300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>42100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>45700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>47300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>41200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>47900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>43700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E9" s="3">
         <v>30500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>32400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>32300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>33900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>36700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>34100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>11100</v>
       </c>
       <c r="T10" s="3">
         <v>11100</v>
       </c>
       <c r="U10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="V10" s="3">
         <v>9300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,23 +1184,26 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1194,38 +1214,38 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>900</v>
       </c>
       <c r="M14" s="3">
         <v>900</v>
       </c>
       <c r="N14" s="3">
+        <v>900</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1241,16 +1261,19 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
@@ -1259,13 +1282,13 @@
         <v>600</v>
       </c>
       <c r="H15" s="3">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1100</v>
       </c>
       <c r="K15" s="3">
         <v>1100</v>
@@ -1274,19 +1297,19 @@
         <v>1100</v>
       </c>
       <c r="M15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1294,8 +1317,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>46200</v>
       </c>
       <c r="E17" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F17" s="3">
         <v>32000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>38500</v>
       </c>
       <c r="Q17" s="3">
         <v>38500</v>
       </c>
       <c r="R17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="S17" s="3">
         <v>40900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>39700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>39500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>41400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>44300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>40900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-11200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,32 +1549,33 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1576,318 +1610,333 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-10000</v>
       </c>
       <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>700</v>
       </c>
       <c r="U22" s="3">
         <v>700</v>
       </c>
       <c r="V22" s="3">
+        <v>700</v>
+      </c>
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-10700</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1500</v>
       </c>
       <c r="U26" s="3">
         <v>1500</v>
       </c>
       <c r="V26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-10700</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1500</v>
       </c>
       <c r="U27" s="3">
         <v>1500</v>
       </c>
       <c r="V27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2208,17 +2269,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2226,11 +2287,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2238,11 +2299,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>600</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,32 +2471,35 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2464,96 +2534,102 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-10700</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-10700</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1000</v>
       </c>
       <c r="S41" s="3">
         <v>1000</v>
       </c>
       <c r="T41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
-      </c>
-      <c r="X41" s="3">
-        <v>700</v>
       </c>
       <c r="Y41" s="3">
         <v>700</v>
       </c>
       <c r="Z41" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,304 +3073,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E43" s="3">
         <v>30900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>25800</v>
       </c>
       <c r="M43" s="3">
         <v>25800</v>
       </c>
       <c r="N43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="O43" s="3">
         <v>29300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>31700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>32300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>27700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E44" s="3">
         <v>13500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>15200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>17000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>17100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>16700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E46" s="3">
         <v>48200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>47900</v>
       </c>
       <c r="O46" s="3">
         <v>47900</v>
       </c>
       <c r="P46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>50600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>52000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>55600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>54400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>55100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>49600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>51700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>52000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>53600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>47200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3458,165 @@
       <c r="Z47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E48" s="3">
         <v>31700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>23000</v>
       </c>
       <c r="V48" s="3">
         <v>23000</v>
       </c>
       <c r="W48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="X48" s="3">
         <v>22600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>21200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E49" s="3">
         <v>21700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>47500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>48500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>49500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>51600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>52600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1400</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>800</v>
       </c>
       <c r="P52" s="3">
         <v>800</v>
       </c>
       <c r="Q52" s="3">
+        <v>800</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>700</v>
       </c>
       <c r="V52" s="3">
         <v>700</v>
       </c>
       <c r="W52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E54" s="3">
         <v>105900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>111200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>101700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>127800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>126900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>127800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>122800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>126000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>126900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>129200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>122500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,108 +4057,112 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
         <v>14100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E58" s="3">
         <v>47000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2800</v>
       </c>
       <c r="L58" s="3">
         <v>2800</v>
@@ -4037,37 +4171,37 @@
         <v>2800</v>
       </c>
       <c r="N58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="O58" s="3">
         <v>2900</v>
       </c>
       <c r="P58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2600</v>
-      </c>
-      <c r="X58" s="3">
-        <v>2400</v>
       </c>
       <c r="Y58" s="3">
         <v>2400</v>
@@ -4075,58 +4209,61 @@
       <c r="Z58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>4200</v>
       </c>
       <c r="T59" s="3">
         <v>4200</v>
@@ -4135,96 +4272,102 @@
         <v>4200</v>
       </c>
       <c r="V59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W59" s="3">
         <v>4400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>3700</v>
       </c>
       <c r="X59" s="3">
         <v>3700</v>
       </c>
       <c r="Y59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z59" s="3">
         <v>4600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E60" s="3">
         <v>66400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>72600</v>
       </c>
       <c r="H60" s="3">
         <v>72600</v>
       </c>
       <c r="I60" s="3">
+        <v>72600</v>
+      </c>
+      <c r="J60" s="3">
         <v>63800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19100</v>
-      </c>
-      <c r="X60" s="3">
-        <v>20400</v>
       </c>
       <c r="Y60" s="3">
         <v>20400</v>
       </c>
       <c r="Z60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4241,138 +4384,144 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>52600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>50800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>49800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>50400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>52500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>53700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>48200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>2500</v>
       </c>
       <c r="T62" s="3">
         <v>2500</v>
       </c>
       <c r="U62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E66" s="3">
         <v>75300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>72600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>76800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>71900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>75700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>78500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>72500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19800</v>
+        <v>-30500</v>
       </c>
       <c r="E72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-6600</v>
       </c>
       <c r="N72" s="3">
         <v>-6600</v>
       </c>
       <c r="O72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>5200</v>
       </c>
       <c r="U72" s="3">
         <v>5200</v>
       </c>
       <c r="V72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W72" s="3">
         <v>4600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E76" s="3">
         <v>30600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>33900</v>
       </c>
       <c r="J76" s="3">
         <v>33900</v>
       </c>
       <c r="K76" s="3">
+        <v>33900</v>
+      </c>
+      <c r="L76" s="3">
         <v>32900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>51000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>50700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>50100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-10700</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,13 +5814,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
         <v>1300</v>
@@ -5634,22 +5833,22 @@
         <v>1300</v>
       </c>
       <c r="H83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1700</v>
       </c>
       <c r="N83" s="3">
         <v>1700</v>
@@ -5670,7 +5869,7 @@
         <v>1700</v>
       </c>
       <c r="T83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="U83" s="3">
         <v>1600</v>
@@ -5682,7 +5881,7 @@
         <v>1600</v>
       </c>
       <c r="X83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Y83" s="3">
         <v>1500</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-900</v>
       </c>
       <c r="Z91" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6528,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1500</v>
       </c>
       <c r="R96" s="3">
         <v>-1500</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-2700</v>
       </c>
       <c r="W100" s="3">
         <v>-2700</v>
       </c>
       <c r="X100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Y100" s="3">
         <v>3500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>UFAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E8" s="3">
         <v>35000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>42100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>45700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>47300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>41700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>41200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>44500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>47900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>43700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E9" s="3">
         <v>29800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>32400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>32300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>33900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>36700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>34100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>11100</v>
       </c>
       <c r="U10" s="3">
         <v>11100</v>
       </c>
       <c r="V10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="W10" s="3">
         <v>9300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>9600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,26 +1204,29 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="3">
         <v>12200</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1217,38 +1237,38 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>900</v>
       </c>
       <c r="N14" s="3">
         <v>900</v>
       </c>
       <c r="O14" s="3">
+        <v>900</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,10 +1296,10 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
@@ -1285,13 +1308,13 @@
         <v>600</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1100</v>
       </c>
       <c r="L15" s="3">
         <v>1100</v>
@@ -1300,19 +1323,19 @@
         <v>1100</v>
       </c>
       <c r="N15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1100</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1320,8 +1343,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E17" s="3">
         <v>46200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>38500</v>
       </c>
       <c r="R17" s="3">
         <v>38500</v>
       </c>
       <c r="S17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="T17" s="3">
         <v>40900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>42500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>39700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>39500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>41400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>44300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>40900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,35 +1583,36 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1613,330 +1647,345 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>800</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
       </c>
       <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>900</v>
-      </c>
-      <c r="U22" s="3">
-        <v>700</v>
       </c>
       <c r="V22" s="3">
         <v>700</v>
       </c>
       <c r="W22" s="3">
+        <v>700</v>
+      </c>
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1500</v>
       </c>
       <c r="V26" s="3">
         <v>1500</v>
       </c>
       <c r="W26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1500</v>
       </c>
       <c r="V27" s="3">
         <v>1500</v>
       </c>
       <c r="W27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2272,17 +2333,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2290,11 +2351,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2302,11 +2363,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,35 +2541,38 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2537,99 +2607,105 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1000</v>
       </c>
       <c r="T41" s="3">
         <v>1000</v>
       </c>
       <c r="U41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>700</v>
       </c>
       <c r="Z41" s="3">
         <v>700</v>
       </c>
       <c r="AA41" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3166,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E43" s="3">
         <v>28700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>25800</v>
       </c>
       <c r="N43" s="3">
         <v>25800</v>
       </c>
       <c r="O43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="P43" s="3">
         <v>29300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>31700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>32300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>27700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E44" s="3">
         <v>13100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>17500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>17000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>17100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>16700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E46" s="3">
         <v>48400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>47900</v>
       </c>
       <c r="P46" s="3">
         <v>47900</v>
       </c>
       <c r="Q46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="R46" s="3">
         <v>50600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>52000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>55600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>54400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>55100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>49600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>51700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>52000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>53600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>47200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,162 +3566,171 @@
       <c r="AA47" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E48" s="3">
         <v>32100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>23000</v>
       </c>
       <c r="W48" s="3">
         <v>23000</v>
       </c>
       <c r="X48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>22600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>22400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>21200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E49" s="3">
         <v>9300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>47500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>48500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>49500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>50600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>51600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>52600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1400</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>800</v>
       </c>
       <c r="Q52" s="3">
         <v>800</v>
       </c>
       <c r="R52" s="3">
+        <v>800</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
-      </c>
-      <c r="V52" s="3">
-        <v>700</v>
       </c>
       <c r="W52" s="3">
         <v>700</v>
       </c>
       <c r="X52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Y52" s="3">
         <v>600</v>
       </c>
       <c r="Z52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA52" s="3">
         <v>500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E54" s="3">
         <v>95500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>112200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>111200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>127800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>127800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>122800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>126000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>126900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>129200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>122500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,28 +4278,28 @@
         <v>47700</v>
       </c>
       <c r="E58" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F58" s="3">
         <v>47000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>54500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2800</v>
       </c>
       <c r="M58" s="3">
         <v>2800</v>
@@ -4174,37 +4308,37 @@
         <v>2800</v>
       </c>
       <c r="O58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="P58" s="3">
         <v>2900</v>
       </c>
       <c r="Q58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2600</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>2400</v>
       </c>
       <c r="Z58" s="3">
         <v>2400</v>
@@ -4212,61 +4346,64 @@
       <c r="AA58" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>4200</v>
       </c>
       <c r="U59" s="3">
         <v>4200</v>
@@ -4275,99 +4412,105 @@
         <v>4200</v>
       </c>
       <c r="W59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X59" s="3">
         <v>4400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>3700</v>
       </c>
       <c r="Y59" s="3">
         <v>3700</v>
       </c>
       <c r="Z59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA59" s="3">
         <v>4600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E60" s="3">
         <v>66300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>72600</v>
       </c>
       <c r="I60" s="3">
         <v>72600</v>
       </c>
       <c r="J60" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K60" s="3">
         <v>63800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>20400</v>
       </c>
       <c r="Z60" s="3">
         <v>20400</v>
       </c>
       <c r="AA60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="AB60" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4387,141 +4530,147 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>52600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>50800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>49800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>50400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>52500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>53700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>48200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
         <v>9300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>2500</v>
       </c>
       <c r="U62" s="3">
         <v>2500</v>
       </c>
       <c r="V62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W62" s="3">
         <v>2400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E66" s="3">
         <v>75500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>76800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>71900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>75900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>78500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>72500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-6600</v>
       </c>
       <c r="O72" s="3">
         <v>-6600</v>
       </c>
       <c r="P72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>5200</v>
       </c>
       <c r="V72" s="3">
         <v>5200</v>
       </c>
       <c r="W72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X72" s="3">
         <v>4600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E76" s="3">
         <v>19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>33900</v>
       </c>
       <c r="K76" s="3">
         <v>33900</v>
       </c>
       <c r="L76" s="3">
+        <v>33900</v>
+      </c>
+      <c r="M76" s="3">
         <v>32900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>51000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>50300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>51000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>50700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>50100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5824,7 +6023,7 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>1300</v>
@@ -5836,22 +6035,22 @@
         <v>1300</v>
       </c>
       <c r="I83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1700</v>
       </c>
       <c r="O83" s="3">
         <v>1700</v>
@@ -5872,7 +6071,7 @@
         <v>1700</v>
       </c>
       <c r="U83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V83" s="3">
         <v>1600</v>
@@ -5884,7 +6083,7 @@
         <v>1600</v>
       </c>
       <c r="Y83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Z83" s="3">
         <v>1500</v>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-900</v>
       </c>
       <c r="AA91" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6765,10 +6999,10 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1500</v>
       </c>
       <c r="S96" s="3">
         <v>-1500</v>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-2700</v>
       </c>
       <c r="X100" s="3">
         <v>-2700</v>
       </c>
       <c r="Y100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Z100" s="3">
         <v>3500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>
